--- a/assignment1/results/dt-1-1.xlsx
+++ b/assignment1/results/dt-1-1.xlsx
@@ -555,61 +555,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7483333333333333</v>
+        <v>0.62</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7663551401869159</v>
+        <v>0.7788461538461539</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7961165048543689</v>
+        <v>0.7864077669902912</v>
       </c>
       <c r="G2" t="n">
-        <v>0.780952380952381</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7710843373493976</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7573964497041421</v>
+        <v>0.5054945054945056</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.467005076142132</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6160714285714286</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6448598130841121</v>
+        <v>0.5279187817258884</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8773584905660378</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8230088495575221</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8493150684931506</v>
+        <v>0.7798165137614679</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.6391752577319587</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="V2" t="n">
-        <v>0.71875</v>
+        <v>0.6231155778894472</v>
       </c>
     </row>
     <row r="3">
@@ -627,61 +627,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7516666666666667</v>
+        <v>0.6433333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.8144329896907216</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9029126213592233</v>
+        <v>0.7669902912621359</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8266666666666668</v>
+        <v>0.79</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7093023255813953</v>
+        <v>0.5780346820809248</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.783068783068783</v>
+        <v>0.5025125628140702</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.5435897435897437</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.883495145631068</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8053097345132744</v>
+        <v>0.8141592920353983</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8425925925925926</v>
+        <v>0.8105726872246696</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7282608695652174</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6568627450980392</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6907216494845361</v>
+        <v>0.6019417475728156</v>
       </c>
     </row>
     <row r="4">
@@ -699,61 +699,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.785</v>
+        <v>0.625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8405797101449275</v>
+        <v>0.7839195979899497</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7974683544303798</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7325581395348837</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7708333333333333</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6972477064220184</v>
+        <v>0.5527638190954773</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8878504672897196</v>
+        <v>0.7904761904761904</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8407079646017699</v>
+        <v>0.7345132743362832</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.7614678899082569</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.575</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7676767676767677</v>
+        <v>0.6216216216216216</v>
       </c>
     </row>
     <row r="5">
@@ -771,61 +771,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.64</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.8173076923076923</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7674418604651163</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7904191616766467</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="K5" t="n">
-        <v>0.78</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8041237113402062</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6478873239436619</v>
+        <v>0.5654450261780105</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8141592920353983</v>
+        <v>0.7256637168141593</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8401826484018264</v>
+        <v>0.7557603686635944</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="U5" t="n">
-        <v>0.696078431372549</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7171717171717172</v>
+        <v>0.6439024390243903</v>
       </c>
     </row>
   </sheetData>
